--- a/data/Readme.xlsx
+++ b/data/Readme.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA162189-79E0-4398-BA09-6484E12D6F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B7DD83-48E0-469D-89E8-74B62C7EE91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{06D6063F-292D-4EBB-8494-695710908624}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="858" activeTab="4" xr2:uid="{06D6063F-292D-4EBB-8494-695710908624}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="6" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="40weatheryears" sheetId="9" r:id="rId3"/>
     <sheet name="Powerplants" sheetId="8" r:id="rId4"/>
     <sheet name="EMLABparameters" sheetId="1" r:id="rId5"/>
-    <sheet name="Prices" sheetId="2" r:id="rId6"/>
-    <sheet name="amiris_data" sheetId="3" r:id="rId7"/>
+    <sheet name="Exported_Traderes" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="143">
   <si>
     <t>candidate power plants</t>
   </si>
@@ -174,15 +173,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>From the specified files, change the tabs in yellow to simulate other countries</t>
-  </si>
-  <si>
-    <t>use script C:\toolbox-amiris-emlab\preparation_scripts\prepareweatherdata to reshape data . Future profiles are scaled by a factor to account for technology advances</t>
-  </si>
-  <si>
-    <t>classified entsoeby categories and scale up 2015 profile</t>
   </si>
   <si>
     <t>CHAPROEV</t>
@@ -202,9 +192,6 @@
     <t>COMPETES</t>
   </si>
   <si>
-    <t>heat pumps demand. File prepared with ouput of C:\toolbox-amiris-emlab\preparation_scripts\prepare_heating_demand.py</t>
-  </si>
-  <si>
     <t>COMPETES or ENTSOE</t>
   </si>
   <si>
@@ -319,9 +306,6 @@
     <t>longTermContractMargin</t>
   </si>
   <si>
-    <t>energy producer parameters for EMLab</t>
-  </si>
-  <si>
     <t>valueOfLostLoad</t>
   </si>
   <si>
@@ -364,9 +348,6 @@
     <t>assigns technology to country</t>
   </si>
   <si>
-    <t xml:space="preserve"> COMPETES</t>
-  </si>
-  <si>
     <t>source NL</t>
   </si>
   <si>
@@ -386,6 +367,111 @@
   </si>
   <si>
     <t>DischarginEfficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technology and fuel prices </t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>investment_cost</t>
+  </si>
+  <si>
+    <t>technology data</t>
+  </si>
+  <si>
+    <t>fuel data</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>fom_cost</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>efficiency_full_load</t>
+  </si>
+  <si>
+    <t>EnergyToPowerRatio</t>
+  </si>
+  <si>
+    <t>ChargingEfficiency</t>
+  </si>
+  <si>
+    <t>DischargingEfficiency</t>
+  </si>
+  <si>
+    <t>SelfDischargeRatePerHour</t>
+  </si>
+  <si>
+    <t>traderes</t>
+  </si>
+  <si>
+    <t>investmentCosts</t>
+  </si>
+  <si>
+    <t>unit2020, unit2030, unit2050</t>
+  </si>
+  <si>
+    <t>2050 Static  load (households + non flexible inustrial) prepared from TNO</t>
+  </si>
+  <si>
+    <t>classified entsoe by categories and scale up from 2015 profileto 2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heat pumps demand. File prepared with ouput of C:\toolbox-amiris-emlab\preparation_scripts\prepare_heating_demand.py. </t>
+  </si>
+  <si>
+    <t>classified entsoeby categories and scale up from 2015 profile to 2050</t>
+  </si>
+  <si>
+    <t>use script C:\toolbox-amiris-emlab\preparation_scripts\prepareweatherdata to reshape data . Future profiles are scaled from 2019 by a factor to account for technology advances</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>need to change to representative year and scale up</t>
+  </si>
+  <si>
+    <t>Need to scale them up (and change to representative year load)</t>
+  </si>
+  <si>
+    <t>.use script C:\-amiris-emlab\preparation_scripts\prepareweatherdata.py to reshape data . Future profiles are scaled by a factor to account for technology advances for 2050</t>
+  </si>
+  <si>
+    <t>technology technical data. Traderes dont have all data, completed with other sources for unit2020 and unit2050</t>
+  </si>
+  <si>
+    <t>TNO</t>
+  </si>
+  <si>
+    <t>check hydrogen and biomass</t>
+  </si>
+  <si>
+    <t>various (see excel)</t>
+  </si>
+  <si>
+    <t>Fuels</t>
+  </si>
+  <si>
+    <t>AmirisFuelSpecificCo2EmissionsInTperMWH</t>
+  </si>
+  <si>
+    <t>AMIRIS  data cannot be modified- &gt; it is fix in AMIRIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If specified in the config file, the fuel costs can be found according to a triangular trend. </t>
+  </si>
+  <si>
+    <t>so far all technologies have the same interests</t>
   </si>
 </sst>
 </file>
@@ -401,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,14 +519,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F790EBA3-A754-4E2E-8255-86BE883EA028}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,7 +863,7 @@
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -791,11 +882,8 @@
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -815,7 +903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -826,7 +914,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>23</v>
@@ -835,7 +923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -852,7 +940,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -872,7 +960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -883,27 +971,36 @@
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -911,19 +1008,16 @@
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -934,13 +1028,33 @@
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -950,32 +1064,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEC486B-8D86-426D-B3C8-6DDE3231BED1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="45.453125" customWidth="1"/>
-    <col min="3" max="3" width="71.54296875" customWidth="1"/>
-    <col min="4" max="4" width="55.1796875" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="57.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.81640625" customWidth="1"/>
     <col min="5" max="5" width="45.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -983,46 +1100,52 @@
         <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>59</v>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>69</v>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1158,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1065,7 +1188,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
@@ -1079,10 +1202,10 @@
         <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1090,10 +1213,10 @@
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -1101,10 +1224,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1240,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1126,6 +1249,7 @@
     <col min="2" max="2" width="20.453125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="80.08984375" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -1133,13 +1257,13 @@
         <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1150,40 +1274,40 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1193,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2ADC10-1ADB-4694-A77C-AC6F567EDBAF}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1214,10 +1338,10 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
@@ -1226,7 +1350,7 @@
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1237,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -1245,10 +1369,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
         <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1264,10 +1388,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1275,13 +1399,13 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1289,13 +1413,13 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1306,15 +1430,15 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1322,7 +1446,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1330,7 +1454,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1338,7 +1462,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1346,12 +1470,12 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1359,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -1367,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
@@ -1375,7 +1499,7 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
@@ -1388,31 +1512,31 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -1436,7 +1560,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>42</v>
@@ -1444,7 +1568,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
         <v>42</v>
@@ -1452,18 +1576,18 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" t="s">
         <v>76</v>
-      </c>
-      <c r="E30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
         <v>43</v>
@@ -1471,7 +1595,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
         <v>43</v>
@@ -1479,10 +1603,10 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
         <v>43</v>
@@ -1493,7 +1617,7 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
         <v>43</v>
@@ -1504,12 +1628,12 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
         <v>43</v>
@@ -1517,7 +1641,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
         <v>43</v>
@@ -1525,7 +1649,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
@@ -1533,7 +1657,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
         <v>43</v>
@@ -1541,7 +1665,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
@@ -1549,7 +1673,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
         <v>43</v>
@@ -1557,7 +1681,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
         <v>43</v>
@@ -1568,34 +1692,48 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1605,28 +1743,155 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519C8335-889B-4951-AA11-710FF5018BD1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB4C966-99F4-4CB4-BF1B-67F798813FBF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" customWidth="1"/>
+    <col min="4" max="4" width="42.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>